--- a/AnalisisDatos.xlsx
+++ b/AnalisisDatos.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="600" windowWidth="28800" windowHeight="10995" activeTab="4" xr2:uid="{9C742BDD-C18D-40A8-987C-E44C084F66F1}"/>
+    <workbookView xWindow="0" yWindow="600" windowWidth="28800" windowHeight="10995" xr2:uid="{9C742BDD-C18D-40A8-987C-E44C084F66F1}"/>
   </bookViews>
   <sheets>
     <sheet name="Analisis" sheetId="1" r:id="rId1"/>
@@ -3059,6 +3059,48 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                    <a:prstClr val="black">
+                      <a:alpha val="40000"/>
+                    </a:prstClr>
+                  </a:outerShdw>
+                </a:effectLst>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="1" i="0" baseline="0">
+                <a:effectLst>
+                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                    <a:srgbClr val="000000">
+                      <a:alpha val="40000"/>
+                    </a:srgbClr>
+                  </a:outerShdw>
+                </a:effectLst>
+              </a:rPr>
+              <a:t>Comparación tiempo medio de BinarySearch y SecuentialSearch</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7615,13 +7657,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
+      <xdr:colOff>85725</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>42862</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>723900</xdr:colOff>
+      <xdr:colOff>752475</xdr:colOff>
       <xdr:row>47</xdr:row>
       <xdr:rowOff>161926</xdr:rowOff>
     </xdr:to>
@@ -7986,8 +8028,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0885C1E2-5252-480E-AAD2-A5D9A4424E20}">
   <dimension ref="B1:F39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G27" sqref="G26:G27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AA52" sqref="AA52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8363,7 +8405,8 @@
     <mergeCell ref="C4:F4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -19075,8 +19118,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFEE0863-420F-47D3-BB82-49C834D4B305}">
   <dimension ref="B1:W105"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
